--- a/Data/model_outputs_baseline/UFA/energy_use_AB_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/energy_use_AB_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>322510605.7117726</v>
+        <v>321972812.4112518</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>546507987.0801095</v>
+        <v>545589033.6816819</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>708672288.8295611</v>
+        <v>707474195.8401672</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>823223473.6964509</v>
+        <v>821824943.478026</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>901883636.5651727</v>
+        <v>900344111.7422489</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>953533139.1498582</v>
+        <v>951897921.4384043</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>985014397.472762</v>
+        <v>983317436.3979902</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1001586435.110734</v>
+        <v>999853231.6987139</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1007280058.244672</v>
+        <v>1005529476.308062</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1005174012.32072</v>
+        <v>1003419000.400701</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>997608907.9732716</v>
+        <v>995859747.6023217</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>986355761.5608945</v>
+        <v>984619045.2195235</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>972745196.2837123</v>
+        <v>971025238.4389948</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>957769288.7851077</v>
+        <v>956068443.0039667</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>942158360.8174188</v>
+        <v>940478206.1100706</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>926443945.3690581</v>
+        <v>924785394.84163</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>911005101.6656338</v>
+        <v>909368898.6745296</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>896104838.1090283</v>
+        <v>894490173.5750585</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>881919284.3600277</v>
+        <v>880324704.1877809</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>868558386.2150052</v>
+        <v>866982803.3888583</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>856083241.7441905</v>
+        <v>854526096.122849</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>844520166.577942</v>
+        <v>842979413.1579869</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>833868703.7413954</v>
+        <v>832343228.0369037</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>824110191.5432556</v>
+        <v>822598208.1667684</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>815212941.6321665</v>
+        <v>813713714.7049282</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>807137260.7887166</v>
+        <v>805649515.2775403</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>799839360.3393055</v>
+        <v>798361541.9917568</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>793271735.7666414</v>
+        <v>791803070.2689595</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>787386082.9176655</v>
+        <v>785925788.5078441</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>782135280.5492088</v>
+        <v>780682097.4297723</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>777472074.1709675</v>
+        <v>776025674.1536418</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>773353240.3764924</v>
+        <v>771912605.5884738</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>769735802.6163093</v>
+        <v>768300056.5683606</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>766579655.1014439</v>
+        <v>765148235.7220327</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>763848216.5191951</v>
+        <v>762420762.2322899</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>761507132.692169</v>
+        <v>760083041.5860325</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>759523889.3729835</v>
+        <v>758103003.3496516</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>757869972.054915</v>
+        <v>756451566.0357996</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>756518443.8150007</v>
+        <v>755101377.2969795</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>755444463.7341157</v>
+        <v>754028291.5881895</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>754624987.4212695</v>
+        <v>753209403.6249844</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>754039664.6460694</v>
+        <v>752624624.3753675</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>753669532.5768337</v>
+        <v>752254835.6885719</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>753497495.780321</v>
+        <v>752082942.1289821</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>753508265.9762554</v>
+        <v>752093547.8977786</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>753687736.0336821</v>
+        <v>752272301.8073227</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>754023550.0576006</v>
+        <v>752606870.7902658</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>754502921.8866773</v>
+        <v>753085697.3216007</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>755116637.1514524</v>
+        <v>753697648.0541741</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>755854848.6863931</v>
+        <v>754434641.6943073</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>756709067.8048229</v>
+        <v>755287262.0668943</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>757672069.6991593</v>
+        <v>756248740.3396043</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>758736708.5773509</v>
+        <v>757310722.0480711</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>759896684.0053679</v>
+        <v>758468633.7144284</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>761145710.6178294</v>
+        <v>759715512.5172348</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>762479642.1567376</v>
+        <v>761047019.7795689</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>763892779.5555259</v>
+        <v>762457752.7721866</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>765381874.078536</v>
+        <v>763944132.8611916</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>766942780.4839301</v>
+        <v>765502283.875517</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>768572687.1070482</v>
+        <v>767128857.0668467</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>770268540.1390251</v>
+        <v>768821729.0339984</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>772027936.6078985</v>
+        <v>770577992.1549482</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>773847907.6349756</v>
+        <v>772394856.5208386</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>775726926.648295</v>
+        <v>774270463.3074005</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>777662615.5028459</v>
+        <v>776203143.9316968</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>779654022.7002594</v>
+        <v>778191008.8561164</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>781699018.7323295</v>
+        <v>780233107.6575459</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>783795669.3796146</v>
+        <v>782326700.9757204</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>785944614.1313999</v>
+        <v>784472499.03894</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>788143871.8023102</v>
+        <v>786668209.0775325</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>790392970.596162</v>
+        <v>788913633.4200319</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>792690871.6973677</v>
+        <v>791208210.2789966</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>795036870.7380083</v>
+        <v>793550142.0764859</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>797430553.3578321</v>
+        <v>795939542.8730601</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>799871513.0753773</v>
+        <v>798376450.912539</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>802358893.9569825</v>
+        <v>800859973.3363324</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>804892676.0887991</v>
+        <v>803389667.4490718</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>807472418.8698492</v>
+        <v>805964777.8708105</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>810098372.3175029</v>
+        <v>808585992.1058958</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>812769881.6126525</v>
+        <v>811252745.2536746</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>815486390.7165594</v>
+        <v>813965105.697998</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>818249083.0436105</v>
+        <v>816723023.648881</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>821057088.8835669</v>
+        <v>819526919.690361</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>823910178.6470066</v>
+        <v>822375485.172878</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>826808029.675873</v>
+        <v>825268269.9404646</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>829751644.2690985</v>
+        <v>828206524.9817141</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>832739552.9253995</v>
+        <v>831189154.8043658</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>835772599.0520495</v>
+        <v>834216967.9145815</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>838850798.5501882</v>
+        <v>837290358.7703564</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>841974420.9444941</v>
+        <v>840409603.9640114</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>845143458.5889436</v>
+        <v>843573733.8272252</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>848357555.6124076</v>
+        <v>846783685.0993788</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>851617336.9008068</v>
+        <v>850038477.71762</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>854922361.4427434</v>
+        <v>853338601.4060084</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>858271938.1209472</v>
+        <v>856683721.8945415</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>861667219.9681236</v>
+        <v>860073640.7343829</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>865107922.1675596</v>
+        <v>863509329.6569105</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>868593731.3510566</v>
+        <v>866989910.4289911</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>872124635.4673727</v>
+        <v>870515556.1458656</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>875699777.3505504</v>
+        <v>874084663.5763644</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>879319898.8869895</v>
+        <v>877699018.6156304</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>882984446.3757278</v>
+        <v>881358018.2423278</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>886692853.6751833</v>
+        <v>885060630.234647</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>890445720.140563</v>
+        <v>888808133.1456889</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>894242751.5313876</v>
+        <v>892599142.2767069</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>898083423.6454948</v>
+        <v>896433872.0034939</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>901966503.045754</v>
+        <v>900311126.1347609</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>905892653.7482507</v>
+        <v>904231810.8168024</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>909861282.5844824</v>
+        <v>908194473.6137148</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>913872173.9875581</v>
+        <v>912199376.3254809</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>917924340.4186242</v>
+        <v>916245461.8563725</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>922018213.5453109</v>
+        <v>920331863.9609358</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>926151820.9619538</v>
+        <v>924458621.7859677</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>930324719.2977732</v>
+        <v>928625806.0475881</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>934536671.0383821</v>
+        <v>932832078.860263</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>938787603.4938388</v>
+        <v>937076977.1710812</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>943076304.9049509</v>
+        <v>941359619.7679623</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>947401625.698746</v>
+        <v>945679090.7950919</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>951763666.35404</v>
+        <v>950034271.2497756</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>956161054.8576562</v>
+        <v>954424730.6210245</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>960592319.6673301</v>
+        <v>958849442.782518</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>965056588.4703939</v>
+        <v>963307526.0708843</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>969553164.48024</v>
+        <v>967798089.3721017</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>974081345.2469805</v>
+        <v>972320436.1994327</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>978640885.8154221</v>
+        <v>976872872.7279927</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>983229263.7574283</v>
+        <v>981455397.0612092</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>987846427.0896853</v>
+        <v>986066612.3145733</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>992491635.7508204</v>
+        <v>990705009.1800933</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>997163327.222616</v>
+        <v>995369159.1903622</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1001859009.259448</v>
+        <v>1000058967.332967</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1006579884.578497</v>
+        <v>1004773176.835289</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1011322988.523959</v>
+        <v>1009509992.330287</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1016088390.317721</v>
+        <v>1014269343.653669</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1020875561.828289</v>
+        <v>1019049823.829877</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1025682922.128157</v>
+        <v>1023851242.12951</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1030508790.075029</v>
+        <v>1028670313.408477</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1035353534.770182</v>
+        <v>1033508413.819233</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1040216091.919872</v>
+        <v>1038363999.235749</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1045095180.781917</v>
+        <v>1043236794.55044</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1049991175.2448</v>
+        <v>1048125982.907992</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1054902265.700385</v>
+        <v>1053030253.011248</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1059828890.847527</v>
+        <v>1057948513.392763</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1064770067.47093</v>
+        <v>1062880749.931162</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1069725155.983799</v>
+        <v>1067826843.490026</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1074693741.281754</v>
+        <v>1072786340.433689</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1079677298.605526</v>
+        <v>1077760944.461566</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1084675273.350435</v>
+        <v>1082750565.190293</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1089688094.547422</v>
+        <v>1087755098.371628</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1094715103.236461</v>
+        <v>1092774555.186486</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1099757904.044235</v>
+        <v>1097809642.737374</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1104816501.047555</v>
+        <v>1102860460.010217</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1109890908.90435</v>
+        <v>1107928202.8855</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1114984327.491476</v>
+        <v>1113013605.66876</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1120094779.135867</v>
+        <v>1118118512.768666</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1125226941.389862</v>
+        <v>1123243486.935087</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1130380856.40499</v>
+        <v>1128391226.463987</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1135559055.904647</v>
+        <v>1133561775.968984</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1140762527.599816</v>
+        <v>1138759630.566881</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1145993591.080114</v>
+        <v>1143984682.437583</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1151253918.765876</v>
+        <v>1149239439.441909</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1156546412.290325</v>
+        <v>1154526083.133746</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1161874305.338008</v>
+        <v>1159850143.186269</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1167240965.071759</v>
+        <v>1165211536.152833</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1172649787.492661</v>
+        <v>1170613847.359526</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1178104758.895013</v>
+        <v>1176062006.51804</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1183608195.259089</v>
+        <v>1181557067.763218</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1189163402.714688</v>
+        <v>1187104868.882068</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1194773755.407367</v>
+        <v>1192707827.368177</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1200443546.641424</v>
+        <v>1198370821.918756</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1206175857.874654</v>
+        <v>1204096770.293485</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1211976250.701329</v>
+        <v>1209890680.752005</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1217848197.415316</v>
+        <v>1215755761.428848</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1223799027.978344</v>
+        <v>1221697571.590369</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1229829688.051861</v>
+        <v>1227720485.970307</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1235946157.013317</v>
+        <v>1233829950.86683</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1242152723.075635</v>
+        <v>1240028797.40109</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1248455468.596295</v>
+        <v>1246324609.414379</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1254858644.766685</v>
+        <v>1252720010.093474</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1261367907.829843</v>
+        <v>1259220783.137477</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1267988042.09939</v>
+        <v>1265832928.34787</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1274724885.053124</v>
+        <v>1272561081.288349</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1281583714.422756</v>
+        <v>1279411982.743326</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1288570758.368645</v>
+        <v>1286390009.195567</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1295690709.30297</v>
+        <v>1293500653.991961</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1302950252.265198</v>
+        <v>1300749935.295849</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1310353814.985881</v>
+        <v>1308144384.359925</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1317907882.598645</v>
+        <v>1315688656.560153</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1325617718.510216</v>
+        <v>1323389922.356624</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1333491192.892876</v>
+        <v>1331254614.263655</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1341533146.03365</v>
+        <v>1339288124.438265</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1349751934.428948</v>
+        <v>1347496993.265121</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1358152806.632992</v>
+        <v>1355887127.507782</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1366742256.447319</v>
+        <v>1364465796.659698</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1375527337.828544</v>
+        <v>1373239474.920383</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1384513344.75191</v>
+        <v>1382215290.25138</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1393709229.478092</v>
+        <v>1391401735.999675</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1403121909.495032</v>
+        <v>1400803294.05838</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1412756749.612634</v>
+        <v>1410427418.768425</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1422623898.459623</v>
+        <v>1420283338.154691</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1432729848.0308</v>
+        <v>1430376608.357095</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1443082088.464048</v>
+        <v>1440717624.443684</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1453689321.313641</v>
+        <v>1451312737.335117</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1464558463.515826</v>
+        <v>1462169600.10946</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1475698143.402788</v>
+        <v>1473297101.318979</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1487116885.221677</v>
+        <v>1484703949.873443</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1498823813.16106</v>
+        <v>1496397841.115376</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1510827647.506631</v>
+        <v>1508388412.599736</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1523137247.684446</v>
+        <v>1520684699.795296</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1535762930.151365</v>
+        <v>1533297030.024214</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1548713141.027272</v>
+        <v>1546234403.432452</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1561997992.719757</v>
+        <v>1559504746.830256</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1575628812.985179</v>
+        <v>1573119682.444331</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1589614087.142431</v>
+        <v>1587090092.594683</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1603963124.03214</v>
+        <v>1601423213.009245</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1618688977.181542</v>
+        <v>1616132676.714447</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1633801544.919852</v>
+        <v>1631229865.119829</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1649312923.09571</v>
+        <v>1646724989.126948</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1665234267.009488</v>
+        <v>1662629549.709023</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1681576829.876674</v>
+        <v>1678955768.726462</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1698352540.674083</v>
+        <v>1695715466.980325</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1715574536.487988</v>
+        <v>1712920839.006705</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1733254840.918513</v>
+        <v>1730583748.658934</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1751407384.064572</v>
+        <v>1748718223.493817</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1770044614.945594</v>
+        <v>1767336978.568861</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1789179274.278795</v>
+        <v>1786452828.747852</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1808826299.405383</v>
+        <v>1806078724.64983</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1829000595.544082</v>
+        <v>1826231117.901382</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1849714145.599866</v>
+        <v>1846922992.945083</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1870983171.307478</v>
+        <v>1868169303.307699</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1892822202.135837</v>
+        <v>1889984166.14449</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1915247049.487769</v>
+        <v>1912385003.932988</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1938270834.07793</v>
+        <v>1935384906.345955</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1961911430.540601</v>
+        <v>1959001715.03289</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1986184119.552947</v>
+        <v>1983249471.117939</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2011105118.776025</v>
+        <v>2008148644.400367</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2036694333.022077</v>
+        <v>2033713532.320227</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2062966100.236881</v>
+        <v>2059961471.387719</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2089938700.528321</v>
+        <v>2086910569.142051</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2117630412.511122</v>
+        <v>2114577145.557455</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2146059684.362666</v>
+        <v>2142980152.910275</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2175244591.353601</v>
+        <v>2172138820.432585</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2205204515.431657</v>
+        <v>2202070812.134707</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2235959534.274015</v>
+        <v>2232796941.09347</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2267526389.278316</v>
+        <v>2264335979.619937</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2299929582.226282</v>
+        <v>2296708350.987899</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2333186089.899591</v>
+        <v>2329935429.171495</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2367319960.802274</v>
+        <v>2364037284.408632</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2402348871.554143</v>
+        <v>2399034554.03081</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2438296923.324542</v>
+        <v>2434949096.462472</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2475186556.617089</v>
+        <v>2471803909.47156</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2513038598.946591</v>
+        <v>2509620720.679388</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2551878295.64232</v>
+        <v>2548423772.677216</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2591727661.221606</v>
+        <v>2588235458.502264</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2632612157.402346</v>
+        <v>2629080012.036246</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2674554789.104</v>
+        <v>2670980360.993712</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2717581507.752717</v>
+        <v>2713964303.925832</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2761716237.577832</v>
+        <v>2758054652.741751</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2806983471.246291</v>
+        <v>2803277378.752905</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2853414368.939367</v>
+        <v>2849661430.071061</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2901030469.468195</v>
+        <v>2897232916.586609</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>2949861394.568175</v>
+        <v>2946018050.020001</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2999934613.735515</v>
+        <v>2996044284.522691</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3051281469.400845</v>
+        <v>3047342314.74142</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>3103929035.685575</v>
+        <v>3099938970.244748</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3157906747.025229</v>
+        <v>3153864866.662886</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3213246288.566273</v>
+        <v>3209149316.815816</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3269974216.478712</v>
+        <v>3265821377.576242</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3328127095.206157</v>
+        <v>3323916105.285556</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>3387736897.291381</v>
+        <v>3383465267.483149</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3448833685.35224</v>
+        <v>3444501395.417208</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3511452617.142667</v>
+        <v>3507057376.568818</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>3575627939.319352</v>
+        <v>3571170576.172213</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>3641394616.913939</v>
+        <v>3636870668.199372</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3708787635.974473</v>
+        <v>3704197549.263929</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>3777845649.838176</v>
+        <v>3773184751.487679</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>3848604931.876766</v>
+        <v>3843873259.917789</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>3921101124.795215</v>
+        <v>3916299480.761177</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>3995374963.665719</v>
+        <v>3990503140.417173</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4071468080.164152</v>
+        <v>4066521194.525146</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>4149420544.735284</v>
+        <v>4144397426.832213</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>4229272032.265957</v>
+        <v>4224171785.340555</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4311068738.099362</v>
+        <v>4305889875.321288</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4394852449.549806</v>
+        <v>4389592871.778716</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4480668000.660304</v>
+        <v>4475326802.037657</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4568561765.341061</v>
+        <v>4563136208.575829</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4658580026.236282</v>
+        <v>4653069170.728475</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4750773489.304135</v>
+        <v>4745171446.743141</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>4845190006.524598</v>
+        <v>4839495603.886189</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>4941876113.703835</v>
+        <v>4936090174.509921</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>5040890260.895275</v>
+        <v>5035006020.633266</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5142279216.571402</v>
+        <v>5136297519.892532</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5246101556.939625</v>
+        <v>5240018904.04566</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5352408804.45678</v>
+        <v>5346226575.235556</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5461262698.661066</v>
+        <v>5454976012.555297</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>5572721247.955882</v>
+        <v>5566325207.486731</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5686843236.095116</v>
+        <v>5680337021.245667</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5803690703.269979</v>
+        <v>5797069630.441425</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5923329060.949132</v>
+        <v>5916592495.608545</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>6045818679.090982</v>
+        <v>6038965454.30144</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>6171227534.765656</v>
+        <v>6164257156.943829</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6299627765.472068</v>
+        <v>6292535638.770527</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6429459373.515013</v>
+        <v>6422464259.900632</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6561669365.468869</v>
+        <v>6554867400.386744</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6696307751.103525</v>
+        <v>6689804351.899405</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>6833439628.769312</v>
+        <v>6827336421.878627</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6973125130.961427</v>
+        <v>6967530330.428749</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>7115424066.17908</v>
+        <v>7110448683.899733</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>7260402730.838829</v>
+        <v>7256156887.249539</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>7408129453.452039</v>
+        <v>7404728918.964308</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>7558670414.65168</v>
+        <v>7556231902.119278</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>7712098192.761008</v>
+        <v>7710740974.924942</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>7868484201.268933</v>
+        <v>7868329988.201731</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>8027898328.216954</v>
+        <v>8029075589.366719</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>8190420231.736037</v>
+        <v>8193058049.257143</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>8356128754.814715</v>
+        <v>8360360939.901928</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>8525103229.689577</v>
+        <v>8531067343.974662</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>8697427796.587927</v>
+        <v>8705262514.543438</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>8873189095.166855</v>
+        <v>8883035748.523756</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>9052475115.144552</v>
+        <v>9064479693.364347</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9235378206.77422</v>
+        <v>9249689123.804749</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9421991679.566513</v>
+        <v>9438761003.735943</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9612412196.801811</v>
+        <v>9631796676.175846</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9806736986.437965</v>
+        <v>9828900331.906496</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>10005070255.96305</v>
+        <v>10030178111.86527</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>10207519977.04858</v>
+        <v>10235741322.23469</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>10414192538.35197</v>
+        <v>10445704612.60767</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>10625203248.05458</v>
+        <v>10660178790.39205</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>10840665773.97215</v>
+        <v>10879286457.63492</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>11060699319.18399</v>
+        <v>11103159180.79717</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>11285430761.82698</v>
+        <v>11331917273.40394</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>11514986718.65015</v>
+        <v>11565695346.7668</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11749495883.89311</v>
+        <v>11804635823.16157</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>11989099536.39618</v>
+        <v>12048872060.20728</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>12233931993.06206</v>
+        <v>12298554623.74114</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>12484140176.83633</v>
+        <v>12553832324.49504</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>12739874503.70027</v>
+        <v>12814861038.92794</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>13001291670.58052</v>
+        <v>13081797910.08802</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>13268544086.56761</v>
+        <v>13354814156.12702</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>13541805196.1452</v>
+        <v>13634078057.37961</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>13821241824.43247</v>
+        <v>13919766152.23709</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>14107025830.64557</v>
+        <v>14212057408.90316</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>14399345730.43186</v>
+        <v>14511146625.80615</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14698379823.48282</v>
+        <v>14817222942.76311</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>15004329207.73602</v>
+        <v>15130493833.42197</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>15317388765.04294</v>
+        <v>15451160750.7543</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>15637771722.09343</v>
+        <v>15779439813.70414</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>15965688841.00981</v>
+        <v>16115562109.35702</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>16301365052.7352</v>
+        <v>16459750895.78361</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>16645027930.01078</v>
+        <v>16812239562.32925</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>16996913715.28679</v>
+        <v>17173281102.07014</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>17357270826.16726</v>
+        <v>17543133506.18535</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>17726357123.05734</v>
+        <v>17922053602.18246</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>18104431271.67694</v>
+        <v>18310319989.5376</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>18491768910.22878</v>
+        <v>18708213685.3511</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>18888649180.91335</v>
+        <v>19116029853.14957</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>19295373355.27782</v>
+        <v>19534065036.36181</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>19712450605.19679</v>
+        <v>19962864815.07929</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>20140085023.30694</v>
+        <v>20402640062.33984</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>20578609397.22925</v>
+        <v>20853734693.72562</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>21028366441.61292</v>
+        <v>21316496282.12385</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>21489713771.56758</v>
+        <v>21791303117.16992</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>21963019399.86356</v>
+        <v>22278530317.96334</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>22448675240.73506</v>
+        <v>22778582776.56622</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>22947078452.43886</v>
+        <v>23291873831.88461</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>23458644286.11071</v>
+        <v>23818834537.8775</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>23983810197.29117</v>
+        <v>24359913747.36266</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>24523033737.72491</v>
+        <v>24915586563.14332</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>25076781097.90118</v>
+        <v>25486335849.84384</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>25645556957.28867</v>
+        <v>26072677949.43605</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>26229868336.44713</v>
+        <v>26675147374.98931</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>26830258713.25026</v>
+        <v>27294296876.5154</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>27440897834.21775</v>
+        <v>27923929700.40842</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>28065734086.4259</v>
+        <v>28568221462.28216</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>28705282149.92002</v>
+        <v>29227697842.60424</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>29360522373.35138</v>
+        <v>29903361091.71011</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>30031608844.35682</v>
+        <v>30595379028.10426</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>30719148295.15057</v>
+        <v>31304367693.89063</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>31423772699.53529</v>
+        <v>32030978730.8308</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>32146156580.16507</v>
+        <v>32775904968.10222</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>32887009742.51887</v>
+        <v>33539878841.91149</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>33647088199.45913</v>
+        <v>34323677807.21871</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>34440092948.29958</v>
+        <v>35138767849.63553</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>35260175609.02379</v>
+        <v>35980497079.0106</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>36108489766.88902</v>
+        <v>36850000614.72303</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>36986276076.96088</v>
+        <v>37748497063.19038</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>37894852234.74934</v>
+        <v>38677286064.45216</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>38835636826.29186</v>
+        <v>39637765401.35952</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>39809370819.13158</v>
+        <v>40630616306.75525</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40808256250.21132</v>
+        <v>41647595483.87772</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>41805631576.93764</v>
+        <v>42660801418.35772</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>42760925227.50828</v>
+        <v>43627948309.53368</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>43597745579.85394</v>
+        <v>44474154645.58662</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>44302911482.66537</v>
+        <v>45184173268.86658</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>44860836519.79961</v>
+        <v>45742456531.82612</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>45270789300.1048</v>
+        <v>46148752647.73942</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>45543420042.75866</v>
+        <v>46414447704.71474</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>45696693447.55897</v>
+        <v>46558331874.98958</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>45752300429.78741</v>
+        <v>46602912508.21324</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>45732941453.43903</v>
+        <v>46571631879.16013</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>45660531618.19648</v>
+        <v>46487028905.64578</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>45555141882.01231</v>
+        <v>46369677496.07855</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>45340526263.33362</v>
+        <v>46135839477.13808</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>45076045944.94723</v>
+        <v>45848672450.87329</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>44779431861.13366</v>
+        <v>45526541367.26542</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>44465912734.92699</v>
+        <v>45185199725.16803</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>44148459185.36827</v>
+        <v>44838027978.32932</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>43838165512.5553</v>
+        <v>44496412046.71518</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>43544833621.65095</v>
+        <v>44170318844.43057</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>43277738963.79298</v>
+        <v>43869022713.44636</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>43046817416.73403</v>
+        <v>43602259773.58074</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>42864853345.41104</v>
+        <v>43382289541.80699</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>42779550081.01894</v>
+        <v>43251328669.73465</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>42826001169.95647</v>
+        <v>43243000027.24975</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>42932143852.49438</v>
+        <v>43291359865.85057</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>43084391142.99867</v>
+        <v>43384025101.4318</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>43271573012.28293</v>
+        <v>43510751734.56162</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>43484567813.03773</v>
+        <v>43663134258.88416</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>43712030605.66975</v>
+        <v>43830386852.96306</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>43905106563.74627</v>
+        <v>43964140071.68646</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>43949334493.07384</v>
+        <v>43950807841.0667</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>43712928563.60691</v>
+        <v>43660148486.6255</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>43109239566.96819</v>
+        <v>43007377861.61615</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>42120037926.21107</v>
+        <v>41975865176.35005</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>40785036563.53835</v>
+        <v>40606264157.54609</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>39178718301.37431</v>
+        <v>38973260117.19598</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>37388369360.11484</v>
+        <v>37163729546.77749</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>35498651691.343</v>
+        <v>35261513658.29607</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>33582852086.80378</v>
+        <v>33338860178.80089</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>31699330236.128</v>
+        <v>31453046258.6692</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>29891219033.0349</v>
+        <v>29646168402.63978</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>28187944775.39462</v>
+        <v>27946734380.97207</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>26607489573.42821</v>
+        <v>26371957434.01865</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>25158853134.97896</v>
+        <v>24930195746.49811</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>23844287044.23674</v>
+        <v>23623211220.57296</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>22661229887.40181</v>
+        <v>22448061142.82645</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>21603859150.57594</v>
+        <v>21398644793.76772</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>20664350246.79935</v>
+        <v>20466924719.90047</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>19833722182.81677</v>
+        <v>19643794376.31556</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>19102550776.00103</v>
+        <v>18919728507.62548</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>18461405376.97174</v>
+        <v>18285236913.20877</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>17901163317.71039</v>
+        <v>17731186546.10658</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>17413208018.57354</v>
+        <v>17248950057.90885</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>16989550291.96284</v>
+        <v>16830521103.8348</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>16622878512.7517</v>
+        <v>16468613148.64981</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>16306545718.95982</v>
+        <v>16156603160.02009</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>16034609633.39687</v>
+        <v>15888552462.55052</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>15801740551.81475</v>
+        <v>15659158916.94869</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>15603190428.66314</v>
+        <v>15463710274.24517</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>15434782158.43597</v>
+        <v>15298040835.95913</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>15292816910.92712</v>
+        <v>15158486510.85489</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>321981022.395147</v>
+        <v>298313777.2091106</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/energy_use_AB_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/energy_use_AB_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>321972812.4112518</v>
+        <v>177084967.232028</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>545589033.6816819</v>
+        <v>300073951.7562068</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>707474195.8401672</v>
+        <v>389110834.2876512</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821824943.478026</v>
+        <v>452003648.501179</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>900344111.7422489</v>
+        <v>495189058.3338009</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>951897921.4384043</v>
+        <v>523543738.0721877</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>983317436.3979902</v>
+        <v>540824689.469561</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>999853231.6987139</v>
+        <v>549919435.0964335</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1005529476.308062</v>
+        <v>553041489.2510469</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1003419000.400701</v>
+        <v>551881141.5014319</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>995859747.6023217</v>
+        <v>547723632.5217602</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>984619045.2195235</v>
+        <v>541541269.7874851</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>971025238.4389948</v>
+        <v>534064755.3208371</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>956068443.0039667</v>
+        <v>525838352.1943122</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>940478206.1100706</v>
+        <v>517264047.4728554</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>924785394.84163</v>
+        <v>508633331.6574842</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>909368898.6745296</v>
+        <v>500153731.5706273</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>894490173.5750585</v>
+        <v>491970346.4343639</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>880324704.1877809</v>
+        <v>484179862.9600807</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>866982803.3888583</v>
+        <v>476842257.8568557</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>854526096.122849</v>
+        <v>469991219.1228296</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>842979413.1579869</v>
+        <v>463641151.7318379</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>832343228.0369037</v>
+        <v>457791924.3971179</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>822598208.1667684</v>
+        <v>452432687.0548461</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>813713714.7049282</v>
+        <v>447546357.0672166</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>805649515.2775403</v>
+        <v>443111503.8817223</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>798361541.9917568</v>
+        <v>439103490.9190378</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>791803070.2689595</v>
+        <v>435497059.7989255</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>785925788.5078441</v>
+        <v>432264989.239095</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>780682097.4297723</v>
+        <v>429381237.417183</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>776025674.1536418</v>
+        <v>426821044.9790204</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>771912605.5884738</v>
+        <v>424559238.0732617</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>768300056.5683606</v>
+        <v>422573152.2277117</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>765148235.7220327</v>
+        <v>420840184.8797091</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>762420762.2322899</v>
+        <v>419340411.9877223</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>760083041.5860325</v>
+        <v>418054515.5650675</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>758103003.3496516</v>
+        <v>416966265.7177776</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>756451566.0357996</v>
+        <v>416058029.4672711</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>755101377.2969795</v>
+        <v>415316044.9067763</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>754028291.5881895</v>
+        <v>414726143.2497095</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>753209403.6249844</v>
+        <v>414276439.9959059</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>752624624.3753675</v>
+        <v>413955073.472047</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>752254835.6885719</v>
+        <v>413752269.6300133</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>752082942.1289821</v>
+        <v>413658216.8448981</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>752093547.8977786</v>
+        <v>413664118.0159038</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>752272301.8073227</v>
+        <v>413763130.2764806</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>752606870.7902658</v>
+        <v>413947033.2406669</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>753085697.3216007</v>
+        <v>414210836.6300968</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>753697648.0541741</v>
+        <v>414548284.5959531</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>754434641.6943073</v>
+        <v>414954164.2460081</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>755287262.0668943</v>
+        <v>415423590.7542976</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>756248740.3396043</v>
+        <v>415952755.7699031</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>757310722.0480711</v>
+        <v>416538175.1095169</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>758468633.7144284</v>
+        <v>417175372.8226092</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>759715512.5172348</v>
+        <v>417862146.9278316</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>761047019.7795689</v>
+        <v>418595606.7154228</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>762457752.7721866</v>
+        <v>419372921.3293676</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>763944132.8611916</v>
+        <v>420191379.739821</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>765502283.875517</v>
+        <v>421049685.1871419</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>767128857.0668467</v>
+        <v>421945715.2438455</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>768821729.0339984</v>
+        <v>422878025.367667</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>770577992.1549482</v>
+        <v>423845512.967286</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>772394856.5208386</v>
+        <v>424846294.937685</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>774270463.3074005</v>
+        <v>425879095.414597</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>776203143.9316968</v>
+        <v>426943731.1168114</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>778191008.8561164</v>
+        <v>428038235.661902</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>780233107.6575459</v>
+        <v>429163364.3289932</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>782326700.9757204</v>
+        <v>430316656.4001057</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>784472499.03894</v>
+        <v>431498002.9993494</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>786668209.0775325</v>
+        <v>432706746.2112511</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>788913633.4200319</v>
+        <v>433943262.9738982</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>791208210.2789966</v>
+        <v>435206333.9108878</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>793550142.0764859</v>
+        <v>436495840.683406</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>795939542.8730601</v>
+        <v>437812050.2689623</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>798376450.912539</v>
+        <v>439153940.3551792</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>800859973.3363324</v>
+        <v>440521618.2106308</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>803389667.4490718</v>
+        <v>441914518.9521242</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>805964777.8708105</v>
+        <v>443332898.8197849</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>808585992.1058958</v>
+        <v>444776114.6662295</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>811252745.2536746</v>
+        <v>446244031.7414432</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>813965105.697998</v>
+        <v>447736503.6091155</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>816723023.648881</v>
+        <v>449254544.8703306</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>819526919.690361</v>
+        <v>450797215.168877</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>822375485.172878</v>
+        <v>452364132.8226122</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>825268269.9404646</v>
+        <v>453956257.4474268</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>828206524.9817141</v>
+        <v>455573917.3157698</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>831189154.8043658</v>
+        <v>457215904.1735733</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>834216967.9145815</v>
+        <v>458882480.5543744</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>837290358.7703564</v>
+        <v>460574132.0735867</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>840409603.9640114</v>
+        <v>462290454.0147617</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>843573733.8272252</v>
+        <v>464031983.560586</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>846783685.0993788</v>
+        <v>465798336.2137129</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>850038477.71762</v>
+        <v>467589783.9714633</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>853338601.4060084</v>
+        <v>469406223.0138769</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>856683721.8945415</v>
+        <v>471246219.9644142</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>860073640.7343829</v>
+        <v>473111849.9310603</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>863509329.6569105</v>
+        <v>475002612.1106803</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>866989910.4289911</v>
+        <v>476918402.4208178</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>870515556.1458656</v>
+        <v>478858282.4357046</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>874084663.5763644</v>
+        <v>480823249.4493057</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>877699018.6156304</v>
+        <v>482812561.7048388</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>881358018.2423278</v>
+        <v>484827145.4626667</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>885060630.234647</v>
+        <v>486865963.7494062</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>888808133.1456889</v>
+        <v>488928739.1016431</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>892599142.2767069</v>
+        <v>491015777.7736718</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>896433872.0034939</v>
+        <v>493126853.8028645</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>900311126.1347609</v>
+        <v>495261177.0868106</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>904231810.8168024</v>
+        <v>497418435.7919545</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>908194473.6137148</v>
+        <v>499598581.1895402</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>912199376.3254809</v>
+        <v>501802712.7199489</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>916245461.8563725</v>
+        <v>504030083.4047153</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>920331863.9609358</v>
+        <v>506278453.6854486</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>924458621.7859677</v>
+        <v>508549685.4767959</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>928625806.0475881</v>
+        <v>510842689.4795662</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>932832078.860263</v>
+        <v>513156950.3426167</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>937076977.1710812</v>
+        <v>515492742.6894072</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>941359619.7679623</v>
+        <v>517848764.3309865</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>945679090.7950919</v>
+        <v>520225803.0745108</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>950034271.2497756</v>
+        <v>522623282.0069412</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>954424730.6210245</v>
+        <v>525039477.930338</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>958849442.782518</v>
+        <v>527474326.821063</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>963307526.0708843</v>
+        <v>529928395.1408567</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>967798089.3721017</v>
+        <v>532399603.9925414</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>972320436.1994327</v>
+        <v>534888427.6131328</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>976872872.7279927</v>
+        <v>537393654.5692934</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>981455397.0612092</v>
+        <v>539914504.1747217</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>986066612.3145733</v>
+        <v>542451360.4750918</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>990705009.1800933</v>
+        <v>545003471.5000181</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>995369159.1903622</v>
+        <v>547570391.9997764</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1000058967.332967</v>
+        <v>550150655.817252</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1004773176.835289</v>
+        <v>552744246.1685048</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1009509992.330287</v>
+        <v>555351670.1298888</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1014269343.653669</v>
+        <v>557971100.7651005</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1019049823.829877</v>
+        <v>560602269.8070526</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1023851242.12951</v>
+        <v>563244717.2124925</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1028670313.408477</v>
+        <v>565898202.5543683</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1033508413.819233</v>
+        <v>568560955.8103814</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1038363999.235749</v>
+        <v>571234139.4268173</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1043236794.55044</v>
+        <v>573915566.9892679</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1048125982.907992</v>
+        <v>576605497.0966733</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1053030253.011248</v>
+        <v>579304695.426663</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1057948513.392763</v>
+        <v>582012092.3987395</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1062880749.931162</v>
+        <v>584727354.1158423</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1067826843.490026</v>
+        <v>587450942.8833339</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1072786340.433689</v>
+        <v>590182000.0363325</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1077760944.461566</v>
+        <v>592920892.4194357</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1082750565.190293</v>
+        <v>595668728.6691726</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1087755098.371628</v>
+        <v>598422994.3315216</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1092774555.186486</v>
+        <v>601185844.5308034</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1097809642.737374</v>
+        <v>603957043.9695776</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1102860460.010217</v>
+        <v>606737075.1696124</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1107928202.8855</v>
+        <v>609526556.1537805</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1113013605.66876</v>
+        <v>612326628.5719116</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1118118512.768666</v>
+        <v>615136427.6690789</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1123243486.935087</v>
+        <v>617957879.962288</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1128391226.463987</v>
+        <v>620791006.7739606</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1133561775.968984</v>
+        <v>623637616.2948807</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1138759630.566881</v>
+        <v>626498097.0382739</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1143984682.437583</v>
+        <v>629374238.300058</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1149239439.441909</v>
+        <v>632267124.9596534</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1154526083.133746</v>
+        <v>635177372.484203</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1159850143.186269</v>
+        <v>638107475.66361</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1165211536.152833</v>
+        <v>641059466.3344697</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1170613847.359526</v>
+        <v>644032819.3730772</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1176062006.51804</v>
+        <v>647032278.9593263</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1181557067.763218</v>
+        <v>650057184.4458394</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1187104868.882068</v>
+        <v>653111550.2084125</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1192707827.368177</v>
+        <v>656195437.4178152</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1198370821.918756</v>
+        <v>659312933.9934547</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1204096770.293485</v>
+        <v>662463798.7253718</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1209890680.752005</v>
+        <v>665651184.0769175</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1215755761.428848</v>
+        <v>668877435.6859175</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1221697571.590369</v>
+        <v>672144798.959005</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1227720485.970307</v>
+        <v>675459153.7800273</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1233829950.86683</v>
+        <v>678820252.2035915</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1240028797.40109</v>
+        <v>682231835.8643848</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1246324609.414379</v>
+        <v>685697029.1140529</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1252720010.093474</v>
+        <v>689216901.2239096</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1259220783.137477</v>
+        <v>692794989.5245221</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1265832928.34787</v>
+        <v>696434481.5401572</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1272561081.288349</v>
+        <v>700137564.0869606</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1279411982.743326</v>
+        <v>703907846.2289742</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1286390009.195567</v>
+        <v>707748774.6069359</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1293500653.991961</v>
+        <v>711663561.1511781</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1300749935.295849</v>
+        <v>715654906.6435933</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1308144384.359925</v>
+        <v>719725228.2555914</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1315688656.560153</v>
+        <v>723878552.5404508</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1323389922.356624</v>
+        <v>728118091.9586337</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1331254614.263655</v>
+        <v>732444979.9137191</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1339288124.438265</v>
+        <v>736866999.6929678</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1347496993.265121</v>
+        <v>741385597.9332612</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1355887127.507782</v>
+        <v>746004641.803566</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1364465796.659698</v>
+        <v>750726619.3129441</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1373239474.920383</v>
+        <v>755556885.4523827</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1382215290.25138</v>
+        <v>760498204.9087712</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1391401735.999675</v>
+        <v>765554104.274483</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1400803294.05838</v>
+        <v>770729151.7923732</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1410427418.768425</v>
+        <v>776027325.3324058</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1420283338.154691</v>
+        <v>781451936.2997832</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1430376608.357095</v>
+        <v>787007361.3835319</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1440717624.443684</v>
+        <v>792698934.7453809</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1451312737.335117</v>
+        <v>798529690.9224102</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1462169600.10946</v>
+        <v>804505668.5767882</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>1473297101.318979</v>
+        <v>810630917.926905</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>1484703949.873443</v>
+        <v>816910031.1875526</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>1496397841.115376</v>
+        <v>823348427.5377138</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>1508388412.599736</v>
+        <v>829949636.5824851</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>1520684699.795296</v>
+        <v>836718219.7531385</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1533297030.024214</v>
+        <v>843659919.7785249</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>1546234403.432452</v>
+        <v>850779850.8582375</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>1559504746.830256</v>
+        <v>858084495.4360033</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>1573119682.444331</v>
+        <v>865577705.2627171</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>1587090092.594683</v>
+        <v>873266018.0489744</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>1601423213.009245</v>
+        <v>881155682.0642349</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>1616132676.714447</v>
+        <v>889251582.6671607</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>1631229865.119829</v>
+        <v>897560244.4594288</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>1646724989.126948</v>
+        <v>906088734.8360131</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>1662629549.709023</v>
+        <v>914841157.8206952</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>1678955768.726462</v>
+        <v>923828110.0987128</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>1695715466.980325</v>
+        <v>933052614.0658249</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>1712920839.006705</v>
+        <v>942521939.6954635</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>1730583748.658934</v>
+        <v>952244248.587081</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>1748718223.493817</v>
+        <v>962226575.1034626</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>1767336978.568861</v>
+        <v>972473624.5611585</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>1786452828.747852</v>
+        <v>982995225.8531516</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>1806078724.64983</v>
+        <v>993797658.4818637</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>1826231117.901382</v>
+        <v>1004889047.146242</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>1846922992.945083</v>
+        <v>1016277069.119539</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>1868169303.307699</v>
+        <v>1027969505.940961</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>1889984166.14449</v>
+        <v>1039975645.303711</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>1912385003.932988</v>
+        <v>1052303079.999063</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>1935384906.345955</v>
+        <v>1064960032.299882</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>1959001715.03289</v>
+        <v>1077956502.057509</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>1983249471.117939</v>
+        <v>1091300040.122709</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>2008148644.400367</v>
+        <v>1105001071.466381</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>2033713532.320227</v>
+        <v>1119067639.787826</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>2059961471.387719</v>
+        <v>1133509428.801204</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>2086910569.142051</v>
+        <v>1148336572.980679</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>2114577145.557455</v>
+        <v>1163559374.191533</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>2142980152.910275</v>
+        <v>1179186282.814142</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>2172138820.432585</v>
+        <v>1195228811.514906</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>2202070812.134707</v>
+        <v>1211697381.521249</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>2232796941.09347</v>
+        <v>1228602216.316023</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>2264335979.619937</v>
+        <v>1245953514.370797</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>2296708350.987899</v>
+        <v>1263762628.844904</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>2329935429.171495</v>
+        <v>1282043937.566445</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>2364037284.408632</v>
+        <v>1300806848.549788</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>2399034554.03081</v>
+        <v>1320060552.906381</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>2434949096.462472</v>
+        <v>1339820617.262741</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>2471803909.47156</v>
+        <v>1360095920.341652</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>2509620720.679388</v>
+        <v>1380904581.477068</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>2548423772.677216</v>
+        <v>1402253914.296492</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>2588235458.502264</v>
+        <v>1424157934.611199</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>2629080012.036246</v>
+        <v>1446630347.492842</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>2670980360.993712</v>
+        <v>1469686156.290356</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>2713964303.925832</v>
+        <v>1493334605.537845</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>2758054652.741751</v>
+        <v>1517594301.173176</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>2803277378.752905</v>
+        <v>1542476138.013973</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>2849661430.071061</v>
+        <v>1567996595.08293</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>2897232916.586609</v>
+        <v>1594168680.680905</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>2946018050.020001</v>
+        <v>1621010020.641444</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>2996044284.522691</v>
+        <v>1648534204.574829</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>3047342314.74142</v>
+        <v>1676757541.699026</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>3099938970.244748</v>
+        <v>1705693896.40242</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>3153864866.662886</v>
+        <v>1735360992.210715</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>3209149316.815816</v>
+        <v>1765776177.998337</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>3265821377.576242</v>
+        <v>1796956272.645815</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>3323916105.285556</v>
+        <v>1828917295.969929</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>3383465267.483149</v>
+        <v>1861678504.395323</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>3444501395.417208</v>
+        <v>1895256992.646367</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>3507057376.568818</v>
+        <v>1929673267.838852</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>3571170576.172213</v>
+        <v>1964943949.380597</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>3636870668.199372</v>
+        <v>2001088915.486653</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>3704197549.263929</v>
+        <v>2038129600.318961</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>3773184751.487679</v>
+        <v>2076083684.089997</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>3843873259.917789</v>
+        <v>2114972093.765453</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>3916299480.761177</v>
+        <v>2154814865.722724</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>3990503140.417173</v>
+        <v>2195636387.415517</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>4066521194.525146</v>
+        <v>2237457603.797081</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>4144397426.832213</v>
+        <v>2280300260.558706</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>4224171785.340555</v>
+        <v>2324187384.333966</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>4305889875.321288</v>
+        <v>2369142467.00859</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>4389592871.778716</v>
+        <v>2415188422.201392</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>4475326802.037657</v>
+        <v>2462351118.339978</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>4563136208.575829</v>
+        <v>2510655147.023693</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>4653069170.728475</v>
+        <v>2560123911.22416</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>4745171446.743141</v>
+        <v>2610787482.280171</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>4839495603.886189</v>
+        <v>2662671300.519683</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>4936090174.509921</v>
+        <v>2715806052.539495</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>5035006020.633266</v>
+        <v>2770215183.279538</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>5136297519.892532</v>
+        <v>2825933535.087913</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>5240018904.04566</v>
+        <v>2882984548.285934</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>5346226575.235556</v>
+        <v>2941403727.044597</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>5454976012.555297</v>
+        <v>3001223010.76826</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>5566325207.486731</v>
+        <v>3062469243.770111</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>5680337021.245667</v>
+        <v>3125182236.946577</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>5797069630.441425</v>
+        <v>3189391267.44952</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>5916592495.608545</v>
+        <v>3255132112.014434</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>6038965454.30144</v>
+        <v>3322441277.602416</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>6164257156.943829</v>
+        <v>3391356728.816736</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>6292535638.770527</v>
+        <v>3461912259.895806</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>6422464259.900632</v>
+        <v>3533376818.595016</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>6554867400.386744</v>
+        <v>3606203251.678523</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>6689804351.899405</v>
+        <v>3680423174.050673</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>6827336421.878627</v>
+        <v>3756068140.740153</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>6967530330.428749</v>
+        <v>3833178819.51738</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>7110448683.899733</v>
+        <v>3911787046.529273</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>7256156887.249539</v>
+        <v>3991930523.191945</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>7404728918.964308</v>
+        <v>4073646494.369999</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>7556231902.119278</v>
+        <v>4156973819.961981</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>7710740974.924942</v>
+        <v>4241957173.786024</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>7868329988.201731</v>
+        <v>4328631240.485606</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>8029075589.366719</v>
+        <v>4417043229.187346</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>8193058049.257143</v>
+        <v>4507236847.580968</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>8360360939.901928</v>
+        <v>4599255331.68939</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>8531067343.974662</v>
+        <v>4693141037.594504</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>8705262514.543438</v>
+        <v>4788946429.644683</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>8883035748.523756</v>
+        <v>4886720337.327295</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>9064479693.364347</v>
+        <v>4986513832.183406</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>9249689123.804749</v>
+        <v>5088378398.452445</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>9438761003.735943</v>
+        <v>5192366297.147945</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>9631796676.175846</v>
+        <v>5298533841.736307</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>9828900331.906496</v>
+        <v>5406937467.49222</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>10030178111.86527</v>
+        <v>5517637929.238601</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>10235741322.23469</v>
+        <v>5630694052.314137</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>10445704612.60767</v>
+        <v>5746165846.838265</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>10660178790.39205</v>
+        <v>5864123809.43477</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>10879286457.63492</v>
+        <v>5984630128.123351</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>11103159180.79717</v>
+        <v>6107752924.436831</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>11331917273.40394</v>
+        <v>6233566140.286812</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>11565695346.7668</v>
+        <v>6362136430.729056</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>11804635823.16157</v>
+        <v>6493546654.670113</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>12048872060.20728</v>
+        <v>6627872201.155722</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>12298554623.74114</v>
+        <v>6765189629.273399</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>12553832324.49504</v>
+        <v>6905583624.752818</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>12814861038.92794</v>
+        <v>7049142709.421679</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>13081797910.08802</v>
+        <v>7195951322.369965</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>13354814156.12702</v>
+        <v>7346103874.948769</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>13634078057.37961</v>
+        <v>7499688199.350804</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>13919766152.23709</v>
+        <v>7656808175.232153</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>14212057408.90316</v>
+        <v>7817566367.724816</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>14511146625.80615</v>
+        <v>7982060578.556996</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14817222942.76311</v>
+        <v>8150400498.435317</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>15130493833.42197</v>
+        <v>8322694923.403316</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>15451160750.7543</v>
+        <v>8499056305.313933</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>15779439813.70414</v>
+        <v>8679610657.650866</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>16115562109.35702</v>
+        <v>8864474262.31394</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>16459750895.78361</v>
+        <v>9053774278.299885</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>16812239562.32925</v>
+        <v>9247643572.311552</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>17173281102.07014</v>
+        <v>9446213104.631187</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>17543133506.18535</v>
+        <v>9649627676.586842</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>17922053602.18246</v>
+        <v>9858030883.922443</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>18310319989.5376</v>
+        <v>10071573497.02942</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>18708213685.3511</v>
+        <v>10290407679.3542</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>19116029853.14957</v>
+        <v>10514702949.45485</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>19534065036.36181</v>
+        <v>10744617763.57424</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>19962864815.07929</v>
+        <v>10980453050.11103</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>20402640062.33984</v>
+        <v>11222325929.19466</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>20853734693.72562</v>
+        <v>11470425454.58267</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>21316496282.12385</v>
+        <v>11724940056.06248</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>21791303117.16992</v>
+        <v>11986078325.57125</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>22278530317.96334</v>
+        <v>12254050581.64543</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>22778582776.56622</v>
+        <v>12529077643.35991</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>23291873831.88461</v>
+        <v>12811387024.38412</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>23818834537.8775</v>
+        <v>13101210570.20737</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>24359913747.36266</v>
+        <v>13398802439.93974</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>24915586563.14332</v>
+        <v>13704419584.46103</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>25486335849.84384</v>
+        <v>14018330332.37393</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>26072677949.43605</v>
+        <v>14340815773.86301</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>26675147374.98931</v>
+        <v>14672170527.75366</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>27294296876.5154</v>
+        <v>15012702066.4899</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>27923929700.40842</v>
+        <v>15358996523.35625</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>28568221462.28216</v>
+        <v>15713353040.78087</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>29227697842.60424</v>
+        <v>16076062130.69795</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>29903361091.71011</v>
+        <v>16447670023.49566</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>30595379028.10426</v>
+        <v>16828270317.70506</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>31304367693.89063</v>
+        <v>17218205852.49276</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>32030978730.8308</v>
+        <v>17617833148.89511</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>32775904968.10222</v>
+        <v>18027534403.87057</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>33539878841.91149</v>
+        <v>18447713208.97626</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>34323677807.21871</v>
+        <v>18878789751.57565</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>35138767849.63553</v>
+        <v>19327078771.69212</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>35980497079.0106</v>
+        <v>19790018990.32936</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>36850000614.72303</v>
+        <v>20268234330.11185</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>37748497063.19038</v>
+        <v>20762390843.31213</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>38677286064.45216</v>
+        <v>21273213748.92965</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>39637765401.35952</v>
+        <v>21836890987.19284</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40630616306.75525</v>
+        <v>22435624613.01858</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>41647595483.87772</v>
+        <v>23066356371.90513</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>42660801418.35772</v>
+        <v>23717009539.78133</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>43627948309.53368</v>
+        <v>24368862193.28978</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>44474154645.58662</v>
+        <v>24969800913.19609</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>45184173268.86658</v>
+        <v>25520030320.59733</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>45742456531.82612</v>
+        <v>26009980124.56697</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>46148752647.73942</v>
+        <v>26436966504.43824</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>46414447704.71474</v>
+        <v>26803903516.29946</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>46558331874.98958</v>
+        <v>27117631010.96901</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>46602912508.21324</v>
+        <v>27387323075.05989</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>46571631879.16013</v>
+        <v>27623212292.27995</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>46487028905.64578</v>
+        <v>27835690678.27671</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>46369677496.07855</v>
+        <v>28034737951.062</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>46135839477.13808</v>
+        <v>28127742552.81428</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>45848672450.87329</v>
+        <v>28170707693.61821</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>45526541367.26542</v>
+        <v>28176422398.77673</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>45185199725.16803</v>
+        <v>28156442704.46141</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>44838027978.32932</v>
+        <v>28121126965.95675</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>44496412046.71518</v>
+        <v>28079816933.72114</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>44170318844.43057</v>
+        <v>28041202464.52579</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>43869022713.44636</v>
+        <v>28013887324.49016</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>43602259773.58074</v>
+        <v>28007429897.54622</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>43382289541.80699</v>
+        <v>28034251909.04173</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>43251328669.73465</v>
+        <v>28136991124.94661</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>43243000027.24975</v>
+        <v>28349862701.60713</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>43291359865.85057</v>
+        <v>28607657721.46193</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>43384025101.4318</v>
+        <v>28898777267.8847</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>43510751734.56162</v>
+        <v>29213818817.41757</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>43663134258.88416</v>
+        <v>29545217456.72532</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>43830386852.96306</v>
+        <v>29884268755.43515</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>43964140071.68646</v>
+        <v>30196459508.6829</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>43950807841.0667</v>
+        <v>30401141029.0434</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>43660148486.6255</v>
+        <v>30404089875.96862</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>43007377861.61615</v>
+        <v>30141407386.92853</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>41975865176.35005</v>
+        <v>29596918855.74826</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>40606264157.54609</v>
+        <v>28795911697.54095</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>38973260117.19598</v>
+        <v>27789356708.4378</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>37163729546.77749</v>
+        <v>26638515639.58963</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>35261513658.29607</v>
+        <v>25403790120.04945</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>33338860178.80089</v>
+        <v>24138226834.81779</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>31453046258.6692</v>
+        <v>22884673226.06077</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>29646168402.63978</v>
+        <v>21675338897.91043</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>27946734380.97207</v>
+        <v>20532700090.62857</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>26371957434.01865</v>
+        <v>19470972672.05363</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>24930195746.49811</v>
+        <v>18497858181.82742</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>23623211220.57296</v>
+        <v>17616050184.89839</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>22448061142.82645</v>
+        <v>16824654273.1813</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>21398644793.76772</v>
+        <v>16120322392.77653</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>20466924719.90047</v>
+        <v>15498098500.82752</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>19643794376.31556</v>
+        <v>14952106737.01492</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>18919728507.62548</v>
+        <v>14476041810.19819</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>18285236913.20877</v>
+        <v>14063507369.9766</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>17731186546.10658</v>
+        <v>13708286445.43225</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>17248950057.90885</v>
+        <v>13404440031.11255</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>16830521103.8348</v>
+        <v>13146438517.44442</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>16468613148.64981</v>
+        <v>12929205240.12457</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>16156603160.02009</v>
+        <v>12748115694.86404</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>15888552462.55052</v>
+        <v>12599007621.71101</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>15659158916.94869</v>
+        <v>12478154122.53112</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>15463710274.24517</v>
+        <v>12382219722.85147</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>15298040835.95913</v>
+        <v>12308278193.6244</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>15158486510.85489</v>
+        <v>12253717553.54222</v>
       </c>
     </row>
     <row r="452">
